--- a/SchedulingData/dynamic15/pso/scheduling2_12.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_12.xlsx
@@ -462,26 +462,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>275.08</v>
+        <v>210.54</v>
       </c>
       <c r="D2" t="n">
-        <v>318.98</v>
+        <v>258.34</v>
       </c>
       <c r="E2" t="n">
-        <v>11.212</v>
+        <v>11.856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -489,127 +489,127 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>220.28</v>
+        <v>252.8</v>
       </c>
       <c r="D3" t="n">
-        <v>273.98</v>
+        <v>306.5</v>
       </c>
       <c r="E3" t="n">
-        <v>12.312</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>227.26</v>
+        <v>230.16</v>
       </c>
       <c r="D4" t="n">
-        <v>282.26</v>
+        <v>277.94</v>
       </c>
       <c r="E4" t="n">
-        <v>11.944</v>
+        <v>12.416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>230.14</v>
+        <v>242.74</v>
       </c>
       <c r="D5" t="n">
-        <v>298.24</v>
+        <v>309.94</v>
       </c>
       <c r="E5" t="n">
-        <v>12.796</v>
+        <v>9.656000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>257.58</v>
+        <v>254.24</v>
       </c>
       <c r="D6" t="n">
-        <v>340.26</v>
+        <v>287.14</v>
       </c>
       <c r="E6" t="n">
-        <v>12.124</v>
+        <v>12.916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>340.26</v>
+        <v>217.84</v>
       </c>
       <c r="D7" t="n">
-        <v>388.66</v>
+        <v>275.96</v>
       </c>
       <c r="E7" t="n">
-        <v>9.404</v>
+        <v>12.524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>273.98</v>
+        <v>277.94</v>
       </c>
       <c r="D8" t="n">
-        <v>332.58</v>
+        <v>343.58</v>
       </c>
       <c r="E8" t="n">
-        <v>7.092</v>
+        <v>9.452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>318.98</v>
+        <v>306.5</v>
       </c>
       <c r="D9" t="n">
-        <v>378.98</v>
+        <v>366.6</v>
       </c>
       <c r="E9" t="n">
-        <v>7.832</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="10">
@@ -622,108 +622,108 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>378.98</v>
+        <v>309.94</v>
       </c>
       <c r="D10" t="n">
-        <v>441.66</v>
+        <v>353.02</v>
       </c>
       <c r="E10" t="n">
-        <v>4.664</v>
+        <v>6.488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>298.24</v>
+        <v>343.58</v>
       </c>
       <c r="D11" t="n">
-        <v>351.14</v>
+        <v>392.9</v>
       </c>
       <c r="E11" t="n">
-        <v>10.636</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>282.26</v>
+        <v>392.9</v>
       </c>
       <c r="D12" t="n">
-        <v>329.96</v>
+        <v>446.2</v>
       </c>
       <c r="E12" t="n">
-        <v>8.304</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>441.66</v>
+        <v>446.2</v>
       </c>
       <c r="D13" t="n">
-        <v>530.58</v>
+        <v>549.6799999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.352</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>530.58</v>
+        <v>258.34</v>
       </c>
       <c r="D14" t="n">
-        <v>611.78</v>
+        <v>305.72</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>8.247999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>332.58</v>
+        <v>549.6799999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>399.16</v>
+        <v>584.38</v>
       </c>
       <c r="E15" t="n">
-        <v>4.024</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="16">
@@ -732,93 +732,93 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>261.34</v>
+        <v>287.14</v>
       </c>
       <c r="D16" t="n">
-        <v>318.48</v>
+        <v>363.1</v>
       </c>
       <c r="E16" t="n">
-        <v>11.352</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>388.66</v>
+        <v>353.02</v>
       </c>
       <c r="D17" t="n">
-        <v>439.58</v>
+        <v>421.42</v>
       </c>
       <c r="E17" t="n">
-        <v>5.932</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>351.14</v>
+        <v>421.42</v>
       </c>
       <c r="D18" t="n">
-        <v>398.84</v>
+        <v>510.38</v>
       </c>
       <c r="E18" t="n">
-        <v>6.996</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>329.96</v>
+        <v>584.38</v>
       </c>
       <c r="D19" t="n">
-        <v>385.66</v>
+        <v>646.04</v>
       </c>
       <c r="E19" t="n">
-        <v>4.864</v>
+        <v>24.184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>385.66</v>
+        <v>305.72</v>
       </c>
       <c r="D20" t="n">
-        <v>420.38</v>
+        <v>363.82</v>
       </c>
       <c r="E20" t="n">
-        <v>2.532</v>
+        <v>5.528</v>
       </c>
     </row>
     <row r="21">
@@ -827,22 +827,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>398.84</v>
+        <v>275.96</v>
       </c>
       <c r="D21" t="n">
-        <v>465.36</v>
+        <v>351.72</v>
       </c>
       <c r="E21" t="n">
-        <v>2.964</v>
+        <v>9.548</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -850,298 +850,298 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>399.16</v>
+        <v>366.6</v>
       </c>
       <c r="D22" t="n">
-        <v>459.82</v>
+        <v>427.46</v>
       </c>
       <c r="E22" t="n">
-        <v>1.048</v>
+        <v>5.104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>459.82</v>
+        <v>363.1</v>
       </c>
       <c r="D23" t="n">
-        <v>554.22</v>
+        <v>397.72</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>6.608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>554.22</v>
+        <v>646.04</v>
       </c>
       <c r="D24" t="n">
-        <v>595.42</v>
+        <v>699.46</v>
       </c>
       <c r="E24" t="n">
-        <v>26.58</v>
+        <v>19.972</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>465.36</v>
+        <v>363.82</v>
       </c>
       <c r="D25" t="n">
-        <v>551.03</v>
+        <v>418.7</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>551.03</v>
+        <v>418.7</v>
       </c>
       <c r="D26" t="n">
-        <v>628.41</v>
+        <v>487.24</v>
       </c>
       <c r="E26" t="n">
-        <v>25.912</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>595.42</v>
+        <v>427.46</v>
       </c>
       <c r="D27" t="n">
-        <v>666.66</v>
+        <v>508.84</v>
       </c>
       <c r="E27" t="n">
-        <v>24.036</v>
+        <v>1.576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>318.48</v>
+        <v>508.84</v>
       </c>
       <c r="D28" t="n">
-        <v>372</v>
+        <v>592.49</v>
       </c>
       <c r="E28" t="n">
-        <v>8.140000000000001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>420.38</v>
+        <v>510.38</v>
       </c>
       <c r="D29" t="n">
-        <v>492.22</v>
+        <v>587.62</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>26.416</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>492.22</v>
+        <v>487.24</v>
       </c>
       <c r="D30" t="n">
-        <v>554.38</v>
+        <v>543.66</v>
       </c>
       <c r="E30" t="n">
-        <v>26.464</v>
+        <v>26.528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>554.38</v>
+        <v>397.72</v>
       </c>
       <c r="D31" t="n">
-        <v>617.3</v>
+        <v>449.9</v>
       </c>
       <c r="E31" t="n">
-        <v>23.292</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>439.58</v>
+        <v>351.72</v>
       </c>
       <c r="D32" t="n">
-        <v>508.32</v>
+        <v>401.18</v>
       </c>
       <c r="E32" t="n">
-        <v>1.668</v>
+        <v>6.732</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>508.32</v>
+        <v>592.49</v>
       </c>
       <c r="D33" t="n">
-        <v>601.38</v>
+        <v>646.29</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>601.38</v>
+        <v>449.9</v>
       </c>
       <c r="D34" t="n">
-        <v>672.74</v>
+        <v>541.36</v>
       </c>
       <c r="E34" t="n">
-        <v>26.524</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>628.41</v>
+        <v>541.36</v>
       </c>
       <c r="D35" t="n">
-        <v>679.25</v>
+        <v>596.66</v>
       </c>
       <c r="E35" t="n">
-        <v>22.948</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>617.3</v>
+        <v>543.66</v>
       </c>
       <c r="D36" t="n">
-        <v>676.62</v>
+        <v>600.4400000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>20.96</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>611.78</v>
+        <v>699.46</v>
       </c>
       <c r="D37" t="n">
-        <v>661.64</v>
+        <v>738.98</v>
       </c>
       <c r="E37" t="n">
-        <v>27.184</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="38">
@@ -1150,41 +1150,41 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>372</v>
+        <v>596.66</v>
       </c>
       <c r="D38" t="n">
-        <v>434.3</v>
+        <v>669.58</v>
       </c>
       <c r="E38" t="n">
-        <v>3.04</v>
+        <v>23.968</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>672.74</v>
+        <v>401.18</v>
       </c>
       <c r="D39" t="n">
-        <v>721.38</v>
+        <v>467.04</v>
       </c>
       <c r="E39" t="n">
-        <v>24.28</v>
+        <v>3.256</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1192,70 +1192,70 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>676.62</v>
+        <v>669.58</v>
       </c>
       <c r="D40" t="n">
-        <v>737.66</v>
+        <v>710.52</v>
       </c>
       <c r="E40" t="n">
-        <v>17.996</v>
+        <v>21.004</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>434.3</v>
+        <v>646.29</v>
       </c>
       <c r="D41" t="n">
-        <v>462.3</v>
+        <v>694.9299999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.88</v>
+        <v>24.576</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>462.3</v>
+        <v>587.62</v>
       </c>
       <c r="D42" t="n">
-        <v>576.84</v>
+        <v>619.46</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>23.872</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>661.64</v>
+        <v>467.04</v>
       </c>
       <c r="D43" t="n">
-        <v>701.4400000000001</v>
+        <v>554.3</v>
       </c>
       <c r="E43" t="n">
-        <v>24.824</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>679.25</v>
+        <v>554.3</v>
       </c>
       <c r="D44" t="n">
-        <v>766.75</v>
+        <v>630.96</v>
       </c>
       <c r="E44" t="n">
-        <v>19.768</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1283,55 +1283,55 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>701.4400000000001</v>
+        <v>619.46</v>
       </c>
       <c r="D45" t="n">
-        <v>765.5599999999999</v>
+        <v>664.36</v>
       </c>
       <c r="E45" t="n">
-        <v>21.032</v>
+        <v>21.512</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>721.38</v>
+        <v>600.4400000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>766.78</v>
+        <v>680.34</v>
       </c>
       <c r="E46" t="n">
-        <v>20.38</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>666.66</v>
+        <v>630.96</v>
       </c>
       <c r="D47" t="n">
-        <v>716.36</v>
+        <v>708.86</v>
       </c>
       <c r="E47" t="n">
-        <v>21.176</v>
+        <v>27.84</v>
       </c>
     </row>
   </sheetData>
